--- a/mktcontent/产品/Images_Translation/产品;产品信息;mktcontent_190116_Images--红字待确认-译文-提交-有备注.xlsx
+++ b/mktcontent/产品/Images_Translation/产品;产品信息;mktcontent_190116_Images--红字待确认-译文-提交-有备注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1565,10 +1565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Service Experience Atlas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Calling Chain Analysis Service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1922,22 +1918,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务体验图谱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此处中文看不清，请确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>此处中文看不清，请确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务依赖图谱</t>
+  </si>
+  <si>
+    <t>Service Dependence Map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2028,7 +2026,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2044,7 +2042,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2332,24 +2330,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="43.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="43.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2373,7 +2371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,7 +2379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -2405,7 +2403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,7 +2411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
@@ -2453,7 +2451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2469,7 +2467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
@@ -2485,7 +2483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2509,7 +2507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2525,15 +2523,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2541,18 +2539,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2568,12 +2566,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="42.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
@@ -2597,7 +2595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>17</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>91</v>
       </c>
@@ -2637,7 +2635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>93</v>
       </c>
@@ -2645,7 +2643,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>96</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
@@ -2677,12 +2675,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="56.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>100</v>
       </c>
@@ -2690,52 +2688,52 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="42.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>107</v>
       </c>
@@ -2743,7 +2741,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +2749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -2767,7 +2765,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>111</v>
       </c>
@@ -2775,7 +2773,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
@@ -2783,7 +2781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
@@ -2791,7 +2789,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>24</v>
       </c>
@@ -2799,63 +2797,63 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:4" ht="56.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>13</v>
       </c>
@@ -2871,55 +2869,55 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>18</v>
       </c>
@@ -2927,28 +2925,28 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="42.75" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="56.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>13</v>
       </c>
@@ -2964,71 +2962,71 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>18</v>
       </c>
@@ -3036,114 +3034,114 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="57" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="55.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C96" s="1" t="s">
+    </row>
+    <row r="97" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
